--- a/CRM.xlsx
+++ b/CRM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeffe\Documents\GitHub\martinshkreli-models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9890FB3A-ABD0-4CBB-B0AB-16CB884CFAB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64754944-D832-49B4-85E2-78E78E2EC537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32325" yWindow="2700" windowWidth="27705" windowHeight="17655" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14235" yWindow="90" windowWidth="26190" windowHeight="20805" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -178,7 +178,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -256,14 +256,14 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -408,9 +408,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -448,7 +448,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -554,7 +554,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -696,7 +696,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -795,7 +795,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="T25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Z36" sqref="Z36"/>
+      <selection pane="bottomRight" activeCell="T27" sqref="T27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1006,71 +1006,71 @@
         <v>9</v>
       </c>
       <c r="D6" s="4">
-        <f>D4+D5</f>
+        <f t="shared" ref="D6:K6" si="0">D4+D5</f>
         <v>5963</v>
       </c>
       <c r="E6" s="4">
-        <f>E4+E5</f>
+        <f t="shared" si="0"/>
         <v>6340</v>
       </c>
       <c r="F6" s="4">
-        <f>F4+F5</f>
+        <f t="shared" si="0"/>
         <v>6863</v>
       </c>
       <c r="G6" s="4">
-        <f>G4+G5</f>
+        <f t="shared" si="0"/>
         <v>7326</v>
       </c>
       <c r="H6" s="4">
-        <f>H4+H5</f>
+        <f t="shared" si="0"/>
         <v>7411</v>
       </c>
       <c r="I6" s="4">
-        <f>I4+I5</f>
+        <f t="shared" si="0"/>
         <v>7720</v>
       </c>
       <c r="J6" s="4">
-        <f>J4+J5</f>
+        <f t="shared" si="0"/>
         <v>7837</v>
       </c>
       <c r="K6" s="4">
-        <f>K4+K5</f>
+        <f t="shared" si="0"/>
         <v>8000</v>
       </c>
       <c r="L6" s="4">
-        <f t="shared" ref="L6:N6" si="0">L4+L5</f>
+        <f t="shared" ref="L6:N6" si="1">L4+L5</f>
         <v>0</v>
       </c>
       <c r="M6" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N6" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q6" s="4">
-        <f t="shared" ref="Q6:V6" si="1">Q4+Q5</f>
+        <f t="shared" ref="Q6:V6" si="2">Q4+Q5</f>
         <v>10540</v>
       </c>
       <c r="R6" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13282</v>
       </c>
       <c r="S6" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17098</v>
       </c>
       <c r="T6" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21252</v>
       </c>
       <c r="U6" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26492</v>
       </c>
       <c r="V6" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30968</v>
       </c>
       <c r="W6" s="16"/>
@@ -1284,55 +1284,55 @@
         <v>15</v>
       </c>
       <c r="D12" s="6">
-        <f>SUM(D9:D11)</f>
+        <f t="shared" ref="D12:K12" si="3">SUM(D9:D11)</f>
         <v>4054</v>
       </c>
       <c r="E12" s="6">
-        <f>SUM(E9:E11)</f>
+        <f t="shared" si="3"/>
         <v>4395</v>
       </c>
       <c r="F12" s="6">
-        <f>SUM(F9:F11)</f>
+        <f t="shared" si="3"/>
         <v>4981</v>
       </c>
       <c r="G12" s="6">
-        <f>SUM(G9:G11)</f>
+        <f t="shared" si="3"/>
         <v>5488</v>
       </c>
       <c r="H12" s="6">
-        <f>SUM(H9:H11)</f>
+        <f t="shared" si="3"/>
         <v>5346</v>
       </c>
       <c r="I12" s="6">
-        <f>SUM(I9:I11)</f>
+        <f t="shared" si="3"/>
         <v>5400</v>
       </c>
       <c r="J12" s="6">
-        <f>SUM(J9:J11)</f>
+        <f t="shared" si="3"/>
         <v>5289</v>
       </c>
       <c r="K12" s="6">
-        <f>SUM(K9:K11)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L12" s="6">
-        <f t="shared" ref="L12:N12" si="2">SUM(L9:L11)</f>
+        <f t="shared" ref="L12:N12" si="4">SUM(L9:L11)</f>
         <v>0</v>
       </c>
       <c r="M12" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N12" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q12" s="6">
-        <f t="shared" ref="Q12:R12" si="3">SUM(Q9:Q11)</f>
+        <f t="shared" ref="Q12:R12" si="5">SUM(Q9:Q11)</f>
         <v>7313</v>
       </c>
       <c r="R12" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9296</v>
       </c>
       <c r="S12" s="15"/>
@@ -1346,55 +1346,55 @@
         <v>16</v>
       </c>
       <c r="D13" s="6">
-        <f>D8-D12</f>
+        <f t="shared" ref="D13:K13" si="6">D8-D12</f>
         <v>354</v>
       </c>
       <c r="E13" s="6">
-        <f>E8-E12</f>
+        <f t="shared" si="6"/>
         <v>332</v>
       </c>
       <c r="F13" s="6">
-        <f>F8-F12</f>
+        <f t="shared" si="6"/>
         <v>38</v>
       </c>
       <c r="G13" s="6">
-        <f>G8-G12</f>
+        <f t="shared" si="6"/>
         <v>-176</v>
       </c>
       <c r="H13" s="6">
-        <f>H8-H12</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="I13" s="6">
-        <f>I8-I12</f>
+        <f t="shared" si="6"/>
         <v>193</v>
       </c>
       <c r="J13" s="6">
-        <f>J8-J12</f>
+        <f t="shared" si="6"/>
         <v>460</v>
       </c>
       <c r="K13" s="6">
-        <f>K8-K12</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L13" s="6">
-        <f t="shared" ref="L13:N13" si="4">L8-L12</f>
+        <f t="shared" ref="L13:N13" si="7">L8-L12</f>
         <v>0</v>
       </c>
       <c r="M13" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N13" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q13" s="6">
-        <f t="shared" ref="Q13:R13" si="5">Q8-Q12</f>
+        <f t="shared" ref="Q13:R13" si="8">Q8-Q12</f>
         <v>454</v>
       </c>
       <c r="R13" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>535</v>
       </c>
       <c r="S13" s="15"/>
@@ -1440,55 +1440,55 @@
         <v>18</v>
       </c>
       <c r="D15" s="6">
-        <f>D14+D13</f>
+        <f t="shared" ref="D15:K15" si="9">D14+D13</f>
         <v>316</v>
       </c>
       <c r="E15" s="6">
-        <f>E14+E13</f>
+        <f t="shared" si="9"/>
         <v>300</v>
       </c>
       <c r="F15" s="6">
-        <f>F14+F13</f>
+        <f t="shared" si="9"/>
         <v>-64</v>
       </c>
       <c r="G15" s="6">
-        <f>G14+G13</f>
+        <f t="shared" si="9"/>
         <v>-231</v>
       </c>
       <c r="H15" s="6">
-        <f>H14+H13</f>
+        <f t="shared" si="9"/>
         <v>-36</v>
       </c>
       <c r="I15" s="6">
-        <f>I14+I13</f>
+        <f t="shared" si="9"/>
         <v>136</v>
       </c>
       <c r="J15" s="6">
-        <f>J14+J13</f>
+        <f t="shared" si="9"/>
         <v>452</v>
       </c>
       <c r="K15" s="6">
-        <f>K14+K13</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L15" s="6">
-        <f t="shared" ref="L15:N15" si="6">L14+L13</f>
+        <f t="shared" ref="L15:N15" si="10">L14+L13</f>
         <v>0</v>
       </c>
       <c r="M15" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N15" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q15" s="6">
-        <f t="shared" ref="Q15" si="7">Q14+Q13</f>
+        <f t="shared" ref="Q15" si="11">Q14+Q13</f>
         <v>367</v>
       </c>
       <c r="R15" s="6">
-        <f t="shared" ref="R15" si="8">R14+R13</f>
+        <f t="shared" ref="R15" si="12">R14+R13</f>
         <v>381</v>
       </c>
     </row>
@@ -1530,55 +1530,55 @@
         <v>20</v>
       </c>
       <c r="D17" s="6">
-        <f>D15-D16</f>
+        <f t="shared" ref="D17:J17" si="13">D15-D16</f>
         <v>181</v>
       </c>
       <c r="E17" s="6">
-        <f>E15-E16</f>
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
       <c r="F17" s="6">
-        <f>F15-F16</f>
+        <f t="shared" si="13"/>
         <v>-64</v>
       </c>
       <c r="G17" s="6">
-        <f>G15-G16</f>
+        <f t="shared" si="13"/>
         <v>107</v>
       </c>
       <c r="H17" s="6">
-        <f>H15-H16</f>
+        <f t="shared" si="13"/>
         <v>21</v>
       </c>
       <c r="I17" s="6">
-        <f>I15-I16</f>
+        <f t="shared" si="13"/>
         <v>23</v>
       </c>
       <c r="J17" s="6">
-        <f>J15-J16</f>
+        <f t="shared" si="13"/>
         <v>187</v>
       </c>
       <c r="K17" s="6">
-        <f t="shared" ref="K17" si="9">K15-K16</f>
+        <f t="shared" ref="K17" si="14">K15-K16</f>
         <v>0</v>
       </c>
       <c r="L17" s="6">
-        <f t="shared" ref="L17" si="10">L15-L16</f>
+        <f t="shared" ref="L17" si="15">L15-L16</f>
         <v>0</v>
       </c>
       <c r="M17" s="6">
-        <f t="shared" ref="M17" si="11">M15-M16</f>
+        <f t="shared" ref="M17" si="16">M15-M16</f>
         <v>0</v>
       </c>
       <c r="N17" s="6">
-        <f t="shared" ref="N17" si="12">N15-N16</f>
+        <f t="shared" ref="N17" si="17">N15-N16</f>
         <v>0</v>
       </c>
       <c r="Q17" s="6">
-        <f t="shared" ref="Q17" si="13">Q15-Q16</f>
+        <f t="shared" ref="Q17" si="18">Q15-Q16</f>
         <v>307</v>
       </c>
       <c r="R17" s="6">
-        <f t="shared" ref="R17" si="14">R15-R16</f>
+        <f t="shared" ref="R17" si="19">R15-R16</f>
         <v>381</v>
       </c>
     </row>
@@ -1587,55 +1587,55 @@
         <v>21</v>
       </c>
       <c r="D18" s="7">
-        <f>D17/D19</f>
+        <f t="shared" ref="D18:K18" si="20">D17/D19</f>
         <v>0.1925531914893617</v>
       </c>
       <c r="E18" s="7">
-        <f>E17/E19</f>
+        <f t="shared" si="20"/>
         <v>9.4736842105263164E-3</v>
       </c>
       <c r="F18" s="7">
-        <f>F17/F19</f>
+        <f t="shared" si="20"/>
         <v>-6.3936063936063936E-2</v>
       </c>
       <c r="G18" s="7">
-        <f>G17/G19</f>
+        <f t="shared" si="20"/>
         <v>0.10985626283367557</v>
       </c>
       <c r="H18" s="7">
-        <f>H17/H19</f>
+        <f t="shared" si="20"/>
         <v>2.097902097902098E-2</v>
       </c>
       <c r="I18" s="7">
-        <f>I17/I19</f>
+        <f t="shared" si="20"/>
         <v>2.2977022977022976E-2</v>
       </c>
       <c r="J18" s="7">
-        <f>J17/J19</f>
+        <f t="shared" si="20"/>
         <v>0.187</v>
       </c>
       <c r="K18" s="7">
-        <f>K17/K19</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L18" s="7">
-        <f t="shared" ref="L18:N18" si="15">L17/L19</f>
+        <f t="shared" ref="L18:N18" si="21">L17/L19</f>
         <v>0</v>
       </c>
       <c r="M18" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N18" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Q18" s="7">
-        <f t="shared" ref="Q18" si="16">Q17/Q19</f>
+        <f t="shared" ref="Q18" si="22">Q17/Q19</f>
         <v>0.41768707482993195</v>
       </c>
       <c r="R18" s="7">
-        <f t="shared" ref="R18" si="17">R17/R19</f>
+        <f t="shared" ref="R18" si="23">R17/R19</f>
         <v>0.49161290322580647</v>
       </c>
     </row>
@@ -1669,15 +1669,15 @@
         <v>1000</v>
       </c>
       <c r="L19" s="6">
-        <f t="shared" ref="L19:N19" si="18">+K19</f>
+        <f t="shared" ref="L19:N19" si="24">+K19</f>
         <v>1000</v>
       </c>
       <c r="M19" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>1000</v>
       </c>
       <c r="N19" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>1000</v>
       </c>
       <c r="Q19" s="15">
@@ -1708,44 +1708,44 @@
         <v>0.14192044295497586</v>
       </c>
       <c r="K22" s="12">
-        <f t="shared" ref="K22:N22" si="19">+K6/G6-1</f>
+        <f t="shared" ref="K22:N22" si="25">+K6/G6-1</f>
         <v>9.2001092001092077E-2</v>
       </c>
       <c r="L22" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>-1</v>
       </c>
       <c r="M22" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>-1</v>
       </c>
       <c r="N22" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>-1</v>
       </c>
       <c r="Q22" s="17"/>
       <c r="R22" s="18">
-        <f>+R6/Q6-1</f>
+        <f t="shared" ref="R22:W22" si="26">+R6/Q6-1</f>
         <v>0.26015180265654658</v>
       </c>
       <c r="S22" s="18">
-        <f>+S6/R6-1</f>
+        <f t="shared" si="26"/>
         <v>0.28730612859509108</v>
       </c>
       <c r="T22" s="18">
-        <f>+T6/S6-1</f>
+        <f t="shared" si="26"/>
         <v>0.24295239209264241</v>
       </c>
       <c r="U22" s="18">
-        <f>+U6/T6-1</f>
+        <f t="shared" si="26"/>
         <v>0.24656502917372491</v>
       </c>
       <c r="V22" s="18">
-        <f>+V6/U6-1</f>
+        <f t="shared" si="26"/>
         <v>0.16895666616337013</v>
       </c>
       <c r="W22" s="18">
-        <f>+W6/V6-1</f>
+        <f t="shared" si="26"/>
         <v>-1</v>
       </c>
     </row>
@@ -1754,35 +1754,35 @@
         <v>24</v>
       </c>
       <c r="C24" s="6">
-        <f>+C17</f>
+        <f t="shared" ref="C24:J24" si="27">+C17</f>
         <v>0</v>
       </c>
       <c r="D24" s="6">
-        <f>+D17</f>
+        <f t="shared" si="27"/>
         <v>181</v>
       </c>
       <c r="E24" s="6">
-        <f>+E17</f>
+        <f t="shared" si="27"/>
         <v>9</v>
       </c>
       <c r="F24" s="6">
-        <f>+F17</f>
+        <f t="shared" si="27"/>
         <v>-64</v>
       </c>
       <c r="G24" s="6">
-        <f>+G17</f>
+        <f t="shared" si="27"/>
         <v>107</v>
       </c>
       <c r="H24" s="6">
-        <f>+H17</f>
+        <f t="shared" si="27"/>
         <v>21</v>
       </c>
       <c r="I24" s="6">
-        <f>+I17</f>
+        <f t="shared" si="27"/>
         <v>23</v>
       </c>
       <c r="J24" s="6">
-        <f>+J17</f>
+        <f t="shared" si="27"/>
         <v>187</v>
       </c>
       <c r="Q24" s="15"/>
@@ -1979,39 +1979,39 @@
         <v>7490</v>
       </c>
       <c r="Y31" s="6">
-        <f t="shared" ref="Y31:AG31" si="20">+X31*(1+$Z$34)</f>
+        <f t="shared" ref="Y31:AG31" si="28">+X31*(1+$Z$34)</f>
         <v>8014.3</v>
       </c>
       <c r="Z31" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>8575.3010000000013</v>
       </c>
       <c r="AA31" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>9175.572070000002</v>
       </c>
       <c r="AB31" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>9817.8621149000028</v>
       </c>
       <c r="AC31" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>10505.112462943003</v>
       </c>
       <c r="AD31" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>11240.470335349015</v>
       </c>
       <c r="AE31" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>12027.303258823447</v>
       </c>
       <c r="AF31" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>12869.214486941089</v>
       </c>
       <c r="AG31" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>13770.059501026966</v>
       </c>
       <c r="AH31" s="6">
@@ -2019,423 +2019,423 @@
         <v>13907.760096037237</v>
       </c>
       <c r="AI31" s="6">
-        <f t="shared" ref="AI31:CT31" si="21">AH31*(1+$Z$35)</f>
+        <f t="shared" ref="AI31:CT31" si="29">AH31*(1+$Z$35)</f>
         <v>14046.837696997609</v>
       </c>
       <c r="AJ31" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>14187.306073967586</v>
       </c>
       <c r="AK31" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>14329.179134707261</v>
       </c>
       <c r="AL31" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>14472.470926054333</v>
       </c>
       <c r="AM31" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>14617.195635314876</v>
       </c>
       <c r="AN31" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>14763.367591668026</v>
       </c>
       <c r="AO31" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>14911.001267584707</v>
       </c>
       <c r="AP31" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>15060.111280260553</v>
       </c>
       <c r="AQ31" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>15210.712393063159</v>
       </c>
       <c r="AR31" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>15362.81951699379</v>
       </c>
       <c r="AS31" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>15516.447712163728</v>
       </c>
       <c r="AT31" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>15671.612189285366</v>
       </c>
       <c r="AU31" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>15828.32831117822</v>
       </c>
       <c r="AV31" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>15986.611594290003</v>
       </c>
       <c r="AW31" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>16146.477710232903</v>
       </c>
       <c r="AX31" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>16307.942487335231</v>
       </c>
       <c r="AY31" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>16471.021912208584</v>
       </c>
       <c r="AZ31" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>16635.732131330671</v>
       </c>
       <c r="BA31" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>16802.089452643977</v>
       </c>
       <c r="BB31" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>16970.110347170415</v>
       </c>
       <c r="BC31" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>17139.811450642119</v>
       </c>
       <c r="BD31" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>17311.20956514854</v>
       </c>
       <c r="BE31" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>17484.321660800026</v>
       </c>
       <c r="BF31" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>17659.164877408028</v>
       </c>
       <c r="BG31" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>17835.756526182107</v>
       </c>
       <c r="BH31" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>18014.114091443927</v>
       </c>
       <c r="BI31" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>18194.255232358366</v>
       </c>
       <c r="BJ31" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>18376.19778468195</v>
       </c>
       <c r="BK31" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>18559.959762528768</v>
       </c>
       <c r="BL31" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>18745.559360154057</v>
       </c>
       <c r="BM31" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>18933.014953755599</v>
       </c>
       <c r="BN31" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>19122.345103293155</v>
       </c>
       <c r="BO31" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>19313.568554326088</v>
       </c>
       <c r="BP31" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>19506.704239869348</v>
       </c>
       <c r="BQ31" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>19701.771282268041</v>
       </c>
       <c r="BR31" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>19898.788995090723</v>
       </c>
       <c r="BS31" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>20097.776885041629</v>
       </c>
       <c r="BT31" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>20298.754653892047</v>
       </c>
       <c r="BU31" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>20501.742200430966</v>
       </c>
       <c r="BV31" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>20706.759622435275</v>
       </c>
       <c r="BW31" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>20913.827218659626</v>
       </c>
       <c r="BX31" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>21122.965490846222</v>
       </c>
       <c r="BY31" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>21334.195145754686</v>
       </c>
       <c r="BZ31" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>21547.537097212233</v>
       </c>
       <c r="CA31" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>21763.012468184355</v>
       </c>
       <c r="CB31" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>21980.642592866199</v>
       </c>
       <c r="CC31" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>22200.449018794861</v>
       </c>
       <c r="CD31" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>22422.45350898281</v>
       </c>
       <c r="CE31" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>22646.678044072636</v>
       </c>
       <c r="CF31" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>22873.144824513362</v>
       </c>
       <c r="CG31" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>23101.876272758494</v>
       </c>
       <c r="CH31" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>23332.895035486079</v>
       </c>
       <c r="CI31" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>23566.223985840941</v>
       </c>
       <c r="CJ31" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>23801.886225699353</v>
       </c>
       <c r="CK31" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>24039.905087956347</v>
       </c>
       <c r="CL31" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>24280.304138835912</v>
       </c>
       <c r="CM31" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>24523.107180224273</v>
       </c>
       <c r="CN31" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>24768.338252026515</v>
       </c>
       <c r="CO31" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>25016.021634546782</v>
       </c>
       <c r="CP31" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>25266.181850892248</v>
       </c>
       <c r="CQ31" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>25518.843669401169</v>
       </c>
       <c r="CR31" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>25774.032106095179</v>
       </c>
       <c r="CS31" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>26031.772427156131</v>
       </c>
       <c r="CT31" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>26292.090151427692</v>
       </c>
       <c r="CU31" s="6">
-        <f t="shared" ref="CU31:EI31" si="22">CT31*(1+$Z$35)</f>
+        <f t="shared" ref="CU31:EI31" si="30">CT31*(1+$Z$35)</f>
         <v>26555.011052941969</v>
       </c>
       <c r="CV31" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>26820.56116347139</v>
       </c>
       <c r="CW31" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>27088.766775106105</v>
       </c>
       <c r="CX31" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>27359.654442857165</v>
       </c>
       <c r="CY31" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>27633.250987285737</v>
       </c>
       <c r="CZ31" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>27909.583497158594</v>
       </c>
       <c r="DA31" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>28188.679332130181</v>
       </c>
       <c r="DB31" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>28470.566125451482</v>
       </c>
       <c r="DC31" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>28755.271786705998</v>
       </c>
       <c r="DD31" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>29042.824504573058</v>
       </c>
       <c r="DE31" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>29333.25274961879</v>
       </c>
       <c r="DF31" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>29626.58527711498</v>
       </c>
       <c r="DG31" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>29922.85112988613</v>
       </c>
       <c r="DH31" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>30222.079641184991</v>
       </c>
       <c r="DI31" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>30524.300437596841</v>
       </c>
       <c r="DJ31" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>30829.543441972812</v>
       </c>
       <c r="DK31" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>31137.83887639254</v>
       </c>
       <c r="DL31" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>31449.217265156465</v>
       </c>
       <c r="DM31" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>31763.709437808029</v>
       </c>
       <c r="DN31" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>32081.346532186111</v>
       </c>
       <c r="DO31" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>32402.159997507973</v>
       </c>
       <c r="DP31" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>32726.181597483053</v>
       </c>
       <c r="DQ31" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>33053.443413457884</v>
       </c>
       <c r="DR31" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>33383.977847592461</v>
       </c>
       <c r="DS31" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>33717.817626068383</v>
       </c>
       <c r="DT31" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>34054.995802329067</v>
       </c>
       <c r="DU31" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>34395.545760352361</v>
       </c>
       <c r="DV31" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>34739.501217955883</v>
       </c>
       <c r="DW31" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>35086.89623013544</v>
       </c>
       <c r="DX31" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>35437.765192436796</v>
       </c>
       <c r="DY31" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>35792.142844361166</v>
       </c>
       <c r="DZ31" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>36150.064272804775</v>
       </c>
       <c r="EA31" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>36511.564915532821</v>
       </c>
       <c r="EB31" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>36876.680564688148</v>
       </c>
       <c r="EC31" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>37245.44737033503</v>
       </c>
       <c r="ED31" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>37617.901844038381</v>
       </c>
       <c r="EE31" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>37994.080862478768</v>
       </c>
       <c r="EF31" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>38374.021671103554</v>
       </c>
       <c r="EG31" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>38757.761887814588</v>
       </c>
       <c r="EH31" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>39145.339506692733</v>
       </c>
       <c r="EI31" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>39536.792901759662</v>
       </c>
     </row>
@@ -2457,95 +2457,95 @@
         <v>0.16666666666666674</v>
       </c>
       <c r="X32" s="19">
-        <f t="shared" ref="X32:AA32" si="23">+X31/W31-1</f>
+        <f t="shared" ref="X32:AA32" si="31">+X31/W31-1</f>
         <v>7.0000000000000062E-2</v>
       </c>
       <c r="Y32" s="19">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>7.0000000000000062E-2</v>
       </c>
       <c r="Z32" s="19">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>7.0000000000000062E-2</v>
       </c>
       <c r="AA32" s="19">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>7.0000000000000062E-2</v>
       </c>
       <c r="AB32" s="19">
-        <f t="shared" ref="AB32" si="24">+AB31/AA31-1</f>
+        <f t="shared" ref="AB32" si="32">+AB31/AA31-1</f>
         <v>7.0000000000000062E-2</v>
       </c>
       <c r="AC32" s="19">
-        <f t="shared" ref="AC32" si="25">+AC31/AB31-1</f>
+        <f t="shared" ref="AC32" si="33">+AC31/AB31-1</f>
         <v>7.0000000000000062E-2</v>
       </c>
       <c r="AD32" s="19">
-        <f t="shared" ref="AD32" si="26">+AD31/AC31-1</f>
+        <f t="shared" ref="AD32" si="34">+AD31/AC31-1</f>
         <v>7.0000000000000062E-2</v>
       </c>
       <c r="AE32" s="19">
-        <f t="shared" ref="AE32" si="27">+AE31/AD31-1</f>
+        <f t="shared" ref="AE32" si="35">+AE31/AD31-1</f>
         <v>7.0000000000000062E-2</v>
       </c>
       <c r="AF32" s="19">
-        <f t="shared" ref="AF32" si="28">+AF31/AE31-1</f>
+        <f t="shared" ref="AF32" si="36">+AF31/AE31-1</f>
         <v>7.0000000000000062E-2</v>
       </c>
       <c r="AG32" s="19">
-        <f t="shared" ref="AG32" si="29">+AG31/AF31-1</f>
+        <f t="shared" ref="AG32" si="37">+AG31/AF31-1</f>
         <v>7.0000000000000062E-2</v>
       </c>
       <c r="AH32" s="19">
-        <f t="shared" ref="AH32" si="30">+AH31/AG31-1</f>
+        <f t="shared" ref="AH32" si="38">+AH31/AG31-1</f>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AI32" s="19">
-        <f t="shared" ref="AI32" si="31">+AI31/AH31-1</f>
+        <f t="shared" ref="AI32" si="39">+AI31/AH31-1</f>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AJ32" s="19">
-        <f t="shared" ref="AJ32" si="32">+AJ31/AI31-1</f>
+        <f t="shared" ref="AJ32" si="40">+AJ31/AI31-1</f>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AK32" s="19">
-        <f t="shared" ref="AK32" si="33">+AK31/AJ31-1</f>
+        <f t="shared" ref="AK32" si="41">+AK31/AJ31-1</f>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AL32" s="19">
-        <f t="shared" ref="AL32" si="34">+AL31/AK31-1</f>
+        <f t="shared" ref="AL32" si="42">+AL31/AK31-1</f>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AM32" s="19">
-        <f t="shared" ref="AM32" si="35">+AM31/AL31-1</f>
+        <f t="shared" ref="AM32" si="43">+AM31/AL31-1</f>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AN32" s="19">
-        <f t="shared" ref="AN32" si="36">+AN31/AM31-1</f>
+        <f t="shared" ref="AN32" si="44">+AN31/AM31-1</f>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AO32" s="19">
-        <f t="shared" ref="AO32" si="37">+AO31/AN31-1</f>
+        <f t="shared" ref="AO32" si="45">+AO31/AN31-1</f>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AP32" s="19">
-        <f t="shared" ref="AP32" si="38">+AP31/AO31-1</f>
+        <f t="shared" ref="AP32" si="46">+AP31/AO31-1</f>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AQ32" s="19">
-        <f t="shared" ref="AQ32" si="39">+AQ31/AP31-1</f>
+        <f t="shared" ref="AQ32" si="47">+AQ31/AP31-1</f>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AR32" s="19">
-        <f t="shared" ref="AR32" si="40">+AR31/AQ31-1</f>
+        <f t="shared" ref="AR32" si="48">+AR31/AQ31-1</f>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AS32" s="19">
-        <f t="shared" ref="AS32" si="41">+AS31/AR31-1</f>
+        <f t="shared" ref="AS32" si="49">+AS31/AR31-1</f>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AT32" s="19">
-        <f t="shared" ref="AT32" si="42">+AT31/AS31-1</f>
+        <f t="shared" ref="AT32" si="50">+AT31/AS31-1</f>
         <v>1.0000000000000009E-2</v>
       </c>
     </row>
